--- a/inst/app/potato_cip.xlsx
+++ b/inst/app/potato_cip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\hidap2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\hidap2\inst\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3123,9 +3123,6 @@
     <t>TNTPL = TNTP / NPH</t>
   </si>
   <si>
-    <t>SAUPD = SCG * ( AUDPC / AUDPCC)</t>
-  </si>
-  <si>
     <t>NMTP = NMTCI + NMTCII</t>
   </si>
   <si>
@@ -3162,10 +3159,13 @@
     <t>ATMW = MTWP /NPH * 1000</t>
   </si>
   <si>
-    <t>AUDPC = agricolae::audpc(c(LB1, LB2, LB3, LB4, LB5, LB6, LB7, LB8, LB9, LB10, LB11, LB12), c(LB1_days, LB2_days, LB3_days, LB4_days, LB5_days, LB6_days, LB7_days, LB8_days, LB9_days, LB10_days, LB11_days, LB12_days))</t>
-  </si>
-  <si>
-    <t>rAUDPC = agricolae::audpc(c(LB1, LB2, LB3, LB4, LB5, LB6, LB7, LB8, LB9, LB10, LB11, LB12), c(LB1_days, LB2_days, LB3_days, LB4_days, LB5_days, LB6_days, LB7_days, LB8_days, LB9_days, LB10_days, LB11_days, LB12_days), "relative")</t>
+    <t>AUDPC = lateblight::audpc(fieldbook)</t>
+  </si>
+  <si>
+    <t>rAUDPC = lateblight::audpc(fieldbook, type = "relative")</t>
+  </si>
+  <si>
+    <t>SAUDPC = lateblight::audpc(fieldbook, type = "standardized")</t>
   </si>
 </sst>
 </file>
@@ -5798,8 +5798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="M23" s="57"/>
       <c r="N23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q23" s="55"/>
       <c r="R23" s="56" t="s">
@@ -7143,7 +7143,7 @@
       <c r="J24" s="57"/>
       <c r="M24" s="57"/>
       <c r="N24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q24" s="55"/>
       <c r="R24" s="56" t="s">
@@ -7199,7 +7199,7 @@
       <c r="J25" s="76"/>
       <c r="M25" s="76"/>
       <c r="N25" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="Q25" s="55"/>
       <c r="R25" s="56"/>
@@ -7689,7 +7689,7 @@
       <c r="J34" s="57"/>
       <c r="M34" s="57"/>
       <c r="N34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q34" s="55"/>
       <c r="R34" s="56" t="s">
@@ -7747,7 +7747,7 @@
         <v>266</v>
       </c>
       <c r="N35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q35" s="55"/>
       <c r="R35" s="56" t="s">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="J39" s="57"/>
       <c r="N39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q39" s="55"/>
       <c r="R39" s="56" t="s">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="J40" s="57"/>
       <c r="N40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q40" s="55"/>
       <c r="R40" s="56" t="s">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="J41" s="57"/>
       <c r="N41" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q41" s="55"/>
       <c r="R41" s="53" t="s">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="J42" s="57"/>
       <c r="N42" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q42" s="55"/>
       <c r="R42" s="53" t="s">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="J43" s="57"/>
       <c r="N43" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q43" s="55"/>
       <c r="R43" s="53" t="s">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="J44" s="57"/>
       <c r="N44" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q44" s="55"/>
       <c r="R44" s="53" t="s">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="J45" s="57"/>
       <c r="N45" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q45" s="55"/>
       <c r="R45" s="53" t="s">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="J46" s="57"/>
       <c r="N46" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Q46" s="55"/>
       <c r="R46" s="53" t="s">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="J52" s="57"/>
       <c r="N52" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q52" s="57"/>
       <c r="R52" s="54" t="s">
@@ -8659,7 +8659,7 @@
       </c>
       <c r="J53" s="57"/>
       <c r="N53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q53" s="57"/>
       <c r="R53" s="54" t="s">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="Z60" s="54"/>
     </row>
-    <row r="61" spans="2:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" s="78" t="s">
         <v>330</v>
       </c>
@@ -8933,7 +8933,7 @@
       </c>
       <c r="Z61" s="54"/>
     </row>
-    <row r="62" spans="2:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B62" s="78" t="s">
         <v>332</v>
       </c>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="Z62" s="54"/>
     </row>
-    <row r="63" spans="2:26" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B63" s="78" t="s">
         <v>334</v>
       </c>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="Z63" s="57"/>
     </row>
-    <row r="64" spans="2:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B64" s="78" t="s">
         <v>336</v>
       </c>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="Z64" s="57"/>
     </row>
-    <row r="65" spans="2:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65" s="78" t="s">
         <v>338</v>
       </c>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="Z65" s="54"/>
     </row>
-    <row r="66" spans="2:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66" s="78" t="s">
         <v>340</v>
       </c>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="Z66" s="53"/>
     </row>
-    <row r="67" spans="2:26" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B67" s="78" t="s">
         <v>342</v>
       </c>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="Z67" s="53"/>
     </row>
-    <row r="68" spans="2:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B68" s="78" t="s">
         <v>344</v>
       </c>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="Z68" s="54"/>
     </row>
-    <row r="69" spans="2:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B69" s="78" t="s">
         <v>346</v>
       </c>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="Z69" s="65"/>
     </row>
-    <row r="70" spans="2:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B70" s="78" t="s">
         <v>348</v>
       </c>
@@ -9401,7 +9401,7 @@
       <c r="V76" s="54"/>
       <c r="Z76" s="53"/>
     </row>
-    <row r="77" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B77" s="80" t="s">
         <v>364</v>
       </c>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="Z77" s="83"/>
     </row>
-    <row r="78" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B78" s="80" t="s">
         <v>366</v>
       </c>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="Z78" s="83"/>
     </row>
-    <row r="79" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B79" s="80" t="s">
         <v>369</v>
       </c>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="Z79" s="83"/>
     </row>
-    <row r="80" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B80" s="80" t="s">
         <v>372</v>
       </c>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="Z80" s="83"/>
     </row>
-    <row r="81" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B81" s="80" t="s">
         <v>374</v>
       </c>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="Z81" s="83"/>
     </row>
-    <row r="82" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B82" s="80" t="s">
         <v>377</v>
       </c>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="Z82" s="83"/>
     </row>
-    <row r="83" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B83" s="80" t="s">
         <v>380</v>
       </c>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="Z83" s="83"/>
     </row>
-    <row r="84" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B84" s="80" t="s">
         <v>382</v>
       </c>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="Z84" s="83"/>
     </row>
-    <row r="85" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B85" s="80" t="s">
         <v>384</v>
       </c>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="Z85" s="83"/>
     </row>
-    <row r="86" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B86" s="80" t="s">
         <v>386</v>
       </c>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="Z86" s="83"/>
     </row>
-    <row r="87" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B87" s="80" t="s">
         <v>388</v>
       </c>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="Z87" s="83"/>
     </row>
-    <row r="88" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B88" s="80" t="s">
         <v>390</v>
       </c>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="Z88" s="83"/>
     </row>
-    <row r="89" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B89" s="80" t="s">
         <v>392</v>
       </c>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="Z89" s="83"/>
     </row>
-    <row r="90" spans="2:26" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B90" s="80" t="s">
         <v>394</v>
       </c>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="Z90" s="83"/>
     </row>
-    <row r="91" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B91" s="80" t="s">
         <v>396</v>
       </c>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="Z91" s="83"/>
     </row>
-    <row r="92" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B92" s="80" t="s">
         <v>399</v>
       </c>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="Z92" s="83"/>
     </row>
-    <row r="93" spans="2:26" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B93" s="80" t="s">
         <v>401</v>
       </c>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="Z93" s="83"/>
     </row>
-    <row r="94" spans="2:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B94" s="80" t="s">
         <v>403</v>
       </c>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="Z94" s="83"/>
     </row>
-    <row r="95" spans="2:26" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B95" s="80" t="s">
         <v>405</v>
       </c>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="Z95" s="83"/>
     </row>
-    <row r="96" spans="2:26" ht="51" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B96" s="80" t="s">
         <v>407</v>
       </c>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="Z97" s="83"/>
     </row>
-    <row r="98" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" s="59" t="s">
         <v>411</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B102" s="59" t="s">
         <v>420</v>
       </c>
@@ -10239,7 +10239,7 @@
       <c r="Z102" s="89"/>
       <c r="AA102" s="92"/>
     </row>
-    <row r="103" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="59" t="s">
         <v>422</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="Z103" s="89"/>
       <c r="AA103" s="92"/>
     </row>
-    <row r="104" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="59" t="s">
         <v>424</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="Z104" s="89"/>
       <c r="AA104" s="92"/>
     </row>
-    <row r="105" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="59" t="s">
         <v>426</v>
       </c>
@@ -10335,7 +10335,7 @@
       <c r="Z105" s="93"/>
       <c r="AA105" s="60"/>
     </row>
-    <row r="106" spans="2:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B106" s="59" t="s">
         <v>428</v>
       </c>
@@ -10367,7 +10367,7 @@
       <c r="Z106" s="89"/>
       <c r="AA106" s="92"/>
     </row>
-    <row r="107" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B107" s="59" t="s">
         <v>430</v>
       </c>
@@ -10431,7 +10431,7 @@
       <c r="Z108" s="93"/>
       <c r="AA108" s="60"/>
     </row>
-    <row r="109" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B109" s="95" t="s">
         <v>434</v>
       </c>
@@ -10461,7 +10461,7 @@
       <c r="Z109" s="93"/>
       <c r="AA109" s="60"/>
     </row>
-    <row r="110" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" s="95" t="s">
         <v>436</v>
       </c>
@@ -10491,7 +10491,7 @@
       <c r="Z110" s="93"/>
       <c r="AA110" s="60"/>
     </row>
-    <row r="111" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B111" s="95" t="s">
         <v>438</v>
       </c>
@@ -10521,7 +10521,7 @@
       <c r="Z111" s="93"/>
       <c r="AA111" s="60"/>
     </row>
-    <row r="112" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B112" s="95" t="s">
         <v>440</v>
       </c>
@@ -10551,7 +10551,7 @@
       <c r="Z112" s="93"/>
       <c r="AA112" s="60"/>
     </row>
-    <row r="113" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B113" s="97" t="s">
         <v>442</v>
       </c>
@@ -10615,7 +10615,7 @@
       <c r="Z114" s="93"/>
       <c r="AA114" s="60"/>
     </row>
-    <row r="115" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B115" s="59" t="s">
         <v>446</v>
       </c>
@@ -10645,7 +10645,7 @@
       <c r="Z115" s="93"/>
       <c r="AA115" s="60"/>
     </row>
-    <row r="116" spans="2:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B116" s="59" t="s">
         <v>448</v>
       </c>
@@ -10677,7 +10677,7 @@
       <c r="Z116" s="89"/>
       <c r="AA116" s="92"/>
     </row>
-    <row r="117" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B117" s="59" t="s">
         <v>450</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="Z118" s="93"/>
       <c r="AA118" s="60"/>
     </row>
-    <row r="119" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B119" s="95" t="s">
         <v>454</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="Z119" s="93"/>
       <c r="AA119" s="60"/>
     </row>
-    <row r="120" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B120" s="95" t="s">
         <v>456</v>
       </c>
@@ -10797,7 +10797,7 @@
       <c r="Z120" s="93"/>
       <c r="AA120" s="60"/>
     </row>
-    <row r="121" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B121" s="95" t="s">
         <v>458</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="Z121" s="93"/>
       <c r="AA121" s="60"/>
     </row>
-    <row r="122" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B122" s="95" t="s">
         <v>460</v>
       </c>
@@ -10857,7 +10857,7 @@
       <c r="Z122" s="93"/>
       <c r="AA122" s="60"/>
     </row>
-    <row r="123" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B123" s="97" t="s">
         <v>462</v>
       </c>
@@ -10889,7 +10889,7 @@
       <c r="Z123" s="92"/>
       <c r="AA123" s="60"/>
     </row>
-    <row r="124" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B124" s="97" t="s">
         <v>464</v>
       </c>
@@ -10919,7 +10919,7 @@
       <c r="Z124" s="93"/>
       <c r="AA124" s="60"/>
     </row>
-    <row r="125" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B125" s="59" t="s">
         <v>466</v>
       </c>
@@ -10951,7 +10951,7 @@
       <c r="Z125" s="93"/>
       <c r="AA125" s="60"/>
     </row>
-    <row r="126" spans="2:27" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B126" s="59" t="s">
         <v>468</v>
       </c>
@@ -10983,7 +10983,7 @@
       <c r="Z126" s="89"/>
       <c r="AA126" s="60"/>
     </row>
-    <row r="127" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B127" s="59" t="s">
         <v>470</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="Z128" s="93"/>
       <c r="AA128" s="60"/>
     </row>
-    <row r="129" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B129" s="95" t="s">
         <v>474</v>
       </c>
@@ -11073,7 +11073,7 @@
       <c r="Z129" s="93"/>
       <c r="AA129" s="60"/>
     </row>
-    <row r="130" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B130" s="95" t="s">
         <v>476</v>
       </c>
@@ -11103,7 +11103,7 @@
       <c r="Z130" s="93"/>
       <c r="AA130" s="60"/>
     </row>
-    <row r="131" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B131" s="95" t="s">
         <v>478</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="Z131" s="93"/>
       <c r="AA131" s="60"/>
     </row>
-    <row r="132" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B132" s="95" t="s">
         <v>480</v>
       </c>
@@ -11163,7 +11163,7 @@
       <c r="Z132" s="93"/>
       <c r="AA132" s="60"/>
     </row>
-    <row r="133" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B133" s="97" t="s">
         <v>482</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="Z133" s="92"/>
       <c r="AA133" s="92"/>
     </row>
-    <row r="134" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B134" s="97" t="s">
         <v>484</v>
       </c>
@@ -11227,7 +11227,7 @@
       <c r="Z134" s="92"/>
       <c r="AA134" s="92"/>
     </row>
-    <row r="135" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B135" s="99" t="s">
         <v>486</v>
       </c>
@@ -11257,7 +11257,7 @@
       <c r="Z135" s="60"/>
       <c r="AA135" s="60"/>
     </row>
-    <row r="136" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B136" s="99" t="s">
         <v>488</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="Z136" s="60"/>
       <c r="AA136" s="60"/>
     </row>
-    <row r="137" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B137" s="99" t="s">
         <v>490</v>
       </c>
@@ -11317,7 +11317,7 @@
       <c r="Z137" s="60"/>
       <c r="AA137" s="60"/>
     </row>
-    <row r="138" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B138" s="99" t="s">
         <v>492</v>
       </c>
@@ -11347,7 +11347,7 @@
       <c r="Z138" s="60"/>
       <c r="AA138" s="60"/>
     </row>
-    <row r="139" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B139" s="99" t="s">
         <v>494</v>
       </c>
@@ -11377,7 +11377,7 @@
       <c r="Z139" s="60"/>
       <c r="AA139" s="60"/>
     </row>
-    <row r="140" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B140" s="99" t="s">
         <v>496</v>
       </c>
@@ -11407,7 +11407,7 @@
       <c r="Z140" s="60"/>
       <c r="AA140" s="60"/>
     </row>
-    <row r="141" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B141" s="99" t="s">
         <v>498</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="Z141" s="60"/>
       <c r="AA141" s="60"/>
     </row>
-    <row r="142" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B142" s="99" t="s">
         <v>500</v>
       </c>
@@ -11467,7 +11467,7 @@
       <c r="Z142" s="60"/>
       <c r="AA142" s="60"/>
     </row>
-    <row r="143" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B143" s="99" t="s">
         <v>502</v>
       </c>
@@ -11497,7 +11497,7 @@
       <c r="Z143" s="60"/>
       <c r="AA143" s="60"/>
     </row>
-    <row r="144" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B144" s="99" t="s">
         <v>504</v>
       </c>
@@ -11527,7 +11527,7 @@
       <c r="Z144" s="60"/>
       <c r="AA144" s="60"/>
     </row>
-    <row r="145" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B145" s="99" t="s">
         <v>506</v>
       </c>
@@ -11557,7 +11557,7 @@
       <c r="Z145" s="60"/>
       <c r="AA145" s="60"/>
     </row>
-    <row r="146" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B146" s="99" t="s">
         <v>508</v>
       </c>
@@ -11587,7 +11587,7 @@
       <c r="Z146" s="60"/>
       <c r="AA146" s="60"/>
     </row>
-    <row r="147" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B147" s="99" t="s">
         <v>510</v>
       </c>
@@ -11617,7 +11617,7 @@
       <c r="Z147" s="92"/>
       <c r="AA147" s="100"/>
     </row>
-    <row r="148" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B148" s="99" t="s">
         <v>512</v>
       </c>
@@ -11647,7 +11647,7 @@
       <c r="Z148" s="92"/>
       <c r="AA148" s="100"/>
     </row>
-    <row r="149" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B149" s="99" t="s">
         <v>514</v>
       </c>
@@ -11677,7 +11677,7 @@
       <c r="Z149" s="92"/>
       <c r="AA149" s="100"/>
     </row>
-    <row r="150" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B150" s="99" t="s">
         <v>516</v>
       </c>
@@ -11707,7 +11707,7 @@
       <c r="Z150" s="92"/>
       <c r="AA150" s="100"/>
     </row>
-    <row r="151" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B151" s="99" t="s">
         <v>518</v>
       </c>
@@ -11737,7 +11737,7 @@
       <c r="Z151" s="92"/>
       <c r="AA151" s="100"/>
     </row>
-    <row r="152" spans="2:27" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B152" s="99" t="s">
         <v>520</v>
       </c>
@@ -11767,7 +11767,7 @@
       <c r="Z152" s="92"/>
       <c r="AA152" s="100"/>
     </row>
-    <row r="153" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B153" s="99" t="s">
         <v>522</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="Z153" s="92"/>
       <c r="AA153" s="60"/>
     </row>
-    <row r="154" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B154" s="99" t="s">
         <v>524</v>
       </c>
@@ -11827,7 +11827,7 @@
       <c r="Z154" s="92"/>
       <c r="AA154" s="60"/>
     </row>
-    <row r="155" spans="2:27" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B155" s="99" t="s">
         <v>526</v>
       </c>
